--- a/biology/Zoologie/Glirologie/Glirologie.xlsx
+++ b/biology/Zoologie/Glirologie/Glirologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glirologie (terme issu du latin : glis, « loir »[note 1]) est la science des glires, la partie de la zoologie traitant des rongeurs (Rodentia) comme la souris ou l'écureuil et les lagomorphes (Lagomorpha) comme le lapin ou le lièvre, tous appartenant à l'ordre des petits mammifères placentaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glirologie (terme issu du latin : glis, « loir »[note 1]) est la science des glires, la partie de la zoologie traitant des rongeurs (Rodentia) comme la souris ou l'écureuil et les lagomorphes (Lagomorpha) comme le lapin ou le lièvre, tous appartenant à l'ordre des petits mammifères placentaires.
 C’est une sous-discipline de la mammalogie, elle-même sous-discipline de la zoologie.
-Un scientifique qui étudie la glirologie est appelé glirologiste[2].
+Un scientifique qui étudie la glirologie est appelé glirologiste.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étude des glires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glirologie permet, entre autres, d'étudier les liens de parenté entre les espèces et dans le temps afin de mieux les classer[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glirologie permet, entre autres, d'étudier les liens de parenté entre les espèces et dans le temps afin de mieux les classer.
 </t>
         </is>
       </c>
